--- a/teaching/traditional_assets/database/data/malaysia/malaysia_heathcare_information_and_technology.xlsx
+++ b/teaching/traditional_assets/database/data/malaysia/malaysia_heathcare_information_and_technology.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,25 +591,28 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.349</v>
+        <v>-0.435</v>
+      </c>
+      <c r="E2">
+        <v>0.322</v>
       </c>
       <c r="G2">
-        <v>-0.1684276729559748</v>
+        <v>-6.763285024154589</v>
       </c>
       <c r="H2">
-        <v>-0.1684276729559748</v>
+        <v>-6.763285024154589</v>
       </c>
       <c r="I2">
-        <v>-0.1210195501657004</v>
+        <v>-7.294685990338165</v>
       </c>
       <c r="J2">
-        <v>-0.1210195501657004</v>
+        <v>-7.294685990338165</v>
       </c>
       <c r="K2">
-        <v>-1.223</v>
+        <v>3.92</v>
       </c>
       <c r="L2">
-        <v>-0.1538364779874214</v>
+        <v>18.93719806763285</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +630,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="V2">
-        <v>0.1324404761904762</v>
+        <v>0.0623574144486692</v>
       </c>
       <c r="W2">
-        <v>-0.5528806062654946</v>
+        <v>1.045333333333333</v>
       </c>
       <c r="X2">
-        <v>0.1159532542712662</v>
+        <v>0.06683572093055425</v>
       </c>
       <c r="Y2">
-        <v>-0.6688338605367609</v>
+        <v>0.978497612402779</v>
       </c>
       <c r="Z2">
-        <v>1.063754753722182</v>
+        <v>0.02966040980083107</v>
       </c>
       <c r="AA2">
-        <v>-1.25009052015535</v>
+        <v>-0.2163633758418112</v>
       </c>
       <c r="AB2">
-        <v>0.09707923562211697</v>
+        <v>0.06650621308893809</v>
       </c>
       <c r="AC2">
-        <v>-1.347169755777466</v>
+        <v>-0.2828695889307493</v>
       </c>
       <c r="AD2">
-        <v>4.802</v>
+        <v>0.243</v>
       </c>
       <c r="AE2">
-        <v>0.1355271190865893</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.937527119086589</v>
+        <v>0.243</v>
       </c>
       <c r="AG2">
-        <v>3.157527119086589</v>
+        <v>-1.397</v>
       </c>
       <c r="AH2">
-        <v>0.2686720083225211</v>
+        <v>0.009154956108955279</v>
       </c>
       <c r="AI2">
-        <v>0.4518430442018713</v>
+        <v>0.09669717469160366</v>
       </c>
       <c r="AJ2">
-        <v>0.190240816986257</v>
+        <v>-0.05609765891659638</v>
       </c>
       <c r="AK2">
-        <v>0.3451782189853598</v>
+        <v>-1.600229095074455</v>
       </c>
       <c r="AL2">
-        <v>0.23</v>
+        <v>0.081</v>
       </c>
       <c r="AM2">
-        <v>0.23</v>
+        <v>0.081</v>
       </c>
       <c r="AN2">
-        <v>-25.1413612565445</v>
+        <v>-0.1547770700636943</v>
       </c>
       <c r="AO2">
-        <v>-4.48695652173913</v>
+        <v>-18.64197530864197</v>
       </c>
       <c r="AP2">
-        <v>-16.53155559731199</v>
+        <v>0.889808917197452</v>
       </c>
       <c r="AQ2">
-        <v>-4.48695652173913</v>
+        <v>-18.64197530864197</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +722,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.349</v>
+        <v>-0.435</v>
+      </c>
+      <c r="E3">
+        <v>0.322</v>
       </c>
       <c r="G3">
-        <v>-0.06327433628318584</v>
+        <v>-6.763285024154589</v>
       </c>
       <c r="H3">
-        <v>-0.06327433628318584</v>
+        <v>-6.763285024154589</v>
       </c>
       <c r="I3">
-        <v>-0.07449932504680204</v>
+        <v>-7.294685990338165</v>
       </c>
       <c r="J3">
-        <v>-0.07449932504680204</v>
+        <v>-7.294685990338165</v>
       </c>
       <c r="K3">
-        <v>-0.794</v>
+        <v>3.92</v>
       </c>
       <c r="L3">
-        <v>-0.1171091445427729</v>
+        <v>18.93719806763285</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +752,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,198 +761,79 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.911</v>
+        <v>1.64</v>
       </c>
       <c r="V3">
-        <v>0.08931372549019609</v>
+        <v>0.0623574144486692</v>
       </c>
       <c r="W3">
-        <v>-0.1711206896551724</v>
+        <v>1.045333333333333</v>
       </c>
       <c r="X3">
-        <v>0.1223393782485561</v>
+        <v>0.06683572093055425</v>
       </c>
       <c r="Y3">
-        <v>-0.2934600679037286</v>
+        <v>0.978497612402779</v>
       </c>
       <c r="Z3">
-        <v>0.9306121422893051</v>
+        <v>0.02966040980083107</v>
       </c>
       <c r="AA3">
-        <v>-0.06932997648091173</v>
+        <v>-0.2163633758418112</v>
       </c>
       <c r="AB3">
-        <v>0.09698692699590859</v>
+        <v>0.06650621308893809</v>
       </c>
       <c r="AC3">
-        <v>-0.1663169034768203</v>
+        <v>-0.2828695889307493</v>
       </c>
       <c r="AD3">
-        <v>4.14</v>
+        <v>0.243</v>
       </c>
       <c r="AE3">
-        <v>0.1355271190865893</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.275527119086589</v>
+        <v>0.243</v>
       </c>
       <c r="AG3">
-        <v>3.364527119086589</v>
+        <v>-1.397</v>
       </c>
       <c r="AH3">
-        <v>0.2953624475235259</v>
+        <v>0.009154956108955279</v>
       </c>
       <c r="AI3">
-        <v>0.5327409721061661</v>
+        <v>0.09669717469160366</v>
       </c>
       <c r="AJ3">
-        <v>0.2480386591842466</v>
+        <v>-0.05609765891659638</v>
       </c>
       <c r="AK3">
-        <v>0.4729094517132925</v>
+        <v>-1.600229095074455</v>
       </c>
       <c r="AL3">
-        <v>0.218</v>
+        <v>0.081</v>
       </c>
       <c r="AM3">
-        <v>0.218</v>
+        <v>0.081</v>
       </c>
       <c r="AN3">
-        <v>-21.67539267015707</v>
+        <v>-0.1547770700636943</v>
       </c>
       <c r="AO3">
-        <v>-2.637614678899082</v>
+        <v>-18.64197530864197</v>
       </c>
       <c r="AP3">
-        <v>-17.61532523081984</v>
+        <v>0.889808917197452</v>
       </c>
       <c r="AQ3">
-        <v>-2.637614678899082</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Malaysia</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Natural Health Farm Holdings Inc. (OTCPK:NHEL)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Heathcare Information and Technology</t>
-        </is>
-      </c>
-      <c r="G4">
-        <v>-0.7777777777777779</v>
-      </c>
-      <c r="H4">
-        <v>-0.7777777777777779</v>
-      </c>
-      <c r="I4">
-        <v>-0.3905982905982907</v>
-      </c>
-      <c r="J4">
-        <v>-0.3905982905982907</v>
-      </c>
-      <c r="K4">
-        <v>-0.429</v>
-      </c>
-      <c r="L4">
-        <v>-0.3666666666666667</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.869</v>
-      </c>
-      <c r="V4">
-        <v>0.2682098765432099</v>
-      </c>
-      <c r="W4">
-        <v>-0.9346405228758169</v>
-      </c>
-      <c r="X4">
-        <v>0.1095671302939763</v>
-      </c>
-      <c r="Y4">
-        <v>-1.044207653169793</v>
-      </c>
-      <c r="Z4">
-        <v>6.223404255319148</v>
-      </c>
-      <c r="AA4">
-        <v>-2.430851063829787</v>
-      </c>
-      <c r="AB4">
-        <v>0.09717154424832534</v>
-      </c>
-      <c r="AC4">
-        <v>-2.528022608078113</v>
-      </c>
-      <c r="AD4">
-        <v>0.662</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0.662</v>
-      </c>
-      <c r="AG4">
-        <v>-0.207</v>
-      </c>
-      <c r="AH4">
-        <v>0.1696565863659662</v>
-      </c>
-      <c r="AI4">
-        <v>0.228118538938663</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.06824925816023737</v>
-      </c>
-      <c r="AK4">
-        <v>-0.101819970486965</v>
-      </c>
-      <c r="AL4">
-        <v>0.012</v>
-      </c>
-      <c r="AM4">
-        <v>0.012</v>
-      </c>
-      <c r="AO4">
-        <v>-38.08333333333334</v>
-      </c>
-      <c r="AQ4">
-        <v>-38.08333333333334</v>
+        <v>-18.64197530864197</v>
       </c>
     </row>
   </sheetData>
